--- a/biology/Médecine/Canal_lacrymo-nasal/Canal_lacrymo-nasal.xlsx
+++ b/biology/Médecine/Canal_lacrymo-nasal/Canal_lacrymo-nasal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal naso-lacrymal (ou canal lacrymo-nasal) est un conduit osseux formé par le cornet nasal inférieur et les sillons lacrymaux de l'os maxillaire et de l'os lacrymal.
 Son extrémité supérieure est formée par l'hamulus lacrymal et l'incisure lacrymale.
@@ -514,7 +526,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épiphora est le nom donné à l'obstruction, généralement temporaire du canal lacrymal qui ne peut alors plus évacuer l'excès des larmes vers la cavité nasale. Ces dernières coulent alors sur la joue.
 </t>
